--- a/testDocumentationRAddin.xlsx
+++ b/testDocumentationRAddin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="150" windowWidth="5040" windowHeight="7470" activeTab="1"/>
+    <workbookView xWindow="15180" yWindow="150" windowWidth="5040" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -12,22 +12,22 @@
   </sheets>
   <definedNames>
     <definedName name="R_Addin" localSheetId="1">Input_Toy!$J$1:$L$5</definedName>
-    <definedName name="R_Addin">Input!$J$11:$L$15</definedName>
+    <definedName name="R_Addin">Input!$J$15:$L$19</definedName>
     <definedName name="R_AddinAnotherDef" localSheetId="1">Input_Toy!$J$7:$L$12</definedName>
-    <definedName name="R_AddinAnotherDef">Input!$M$11:$O$15</definedName>
+    <definedName name="R_AddinAnotherDef">Input!$M$15:$O$19</definedName>
     <definedName name="test_in" localSheetId="1">Input_Toy!$B$1:$H$3</definedName>
     <definedName name="test_in">Input!$B$1:$H$306</definedName>
     <definedName name="test_out" localSheetId="1">Input_Toy!$A$1:$A$3</definedName>
     <definedName name="test_out">Input!$A$2:$A$49</definedName>
     <definedName name="testdiagram" localSheetId="1">Input_Toy!$J$17</definedName>
-    <definedName name="testdiagram">Input!$J$19</definedName>
+    <definedName name="testdiagram">Input!$J$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="38">
   <si>
     <t/>
   </si>
@@ -83,25 +83,7 @@
     <t>in4</t>
   </si>
   <si>
-    <t>Define Rscript interactions (Rdefinitions):</t>
-  </si>
-  <si>
-    <t>3 column area (1st col: definition type, 2nd: definition value, 3rd: definition path)</t>
-  </si>
-  <si>
-    <t>possible types: rexec, dir, script, arg (R input objects), res (R output objects), diag (R output diagrams)</t>
-  </si>
-  <si>
-    <t>Area name can be Workbook global or worksheet local</t>
-  </si>
-  <si>
-    <t>Rdefinition area name always starts with R_Addin and has an optional postfix as description of the definition</t>
-  </si>
-  <si>
     <t>the worksheet name (for worksheet local names) or the workbook name (for workbook global names) is prepended to the postfix definition description</t>
-  </si>
-  <si>
-    <t>The range names that are referred in arg, res and diag types are also either workbook global or worksheet local (having the worksheet name + ! in front of the name)</t>
   </si>
   <si>
     <t>So for the 4 areas defined in this test workbook there should be 4 entries in the Rdefinition dropdown: Input_toy, test.xlsm, Input_toyAnotherDef, test.xlsmAnotherDef</t>
@@ -130,6 +112,36 @@
   <si>
     <t>testStartRscript.cmd</t>
   </si>
+  <si>
+    <t>Absolute Paths in dir or the definition path column are defined by starting with \\ or X:\ (X being a drive letter)</t>
+  </si>
+  <si>
+    <t>rexec is the full path to an executable being able to run the script in line "script" (usually Rscript.exe). It is only needed when overriding the ExePath in the AppSettings in the Raddin-AddIn-packed.xll.config file.</t>
+  </si>
+  <si>
+    <t>When running cmd shell files a special entry "cmd" is used for rexec.</t>
+  </si>
+  <si>
+    <t>Define Rscript interactions (Rdefinitions) using a 3 column named area (1st col: definition type, 2nd: definition value, 3rd: definition path):</t>
+  </si>
+  <si>
+    <t>Rdefinition area name must start with R_Addin and can have an optional postfix as an additional description of the definition</t>
+  </si>
+  <si>
+    <t>An area name can be Workbook global or worksheet local, the first Rdefinition area is being taken as the default definition (used for running when not selecting a Rdefinition)</t>
+  </si>
+  <si>
+    <t>1st column: definition types, possible types are rexec, dir, script, arg (R input objects, txt files), res (R output objects, txt files) and diag (R output diagrams, png format)</t>
+  </si>
+  <si>
+    <t>2nd column: definition values, for rexec, dir and script this is simply the path/name of the executable/Rdefinition directory/script.</t>
+  </si>
+  <si>
+    <t>For arg, res and diag these are range names referring to the respective ranges to be taken as arg, res or diag target in the excel workbook.</t>
+  </si>
+  <si>
+    <t>The range names that are referred in arg, res and diag types can also be either workbook global (having no ! in front of the name) or worksheet local (having the worksheet name + ! in front of the name)</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +153,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,6 +171,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -189,7 +207,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,6 +216,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Komma 2" xfId="3"/>
@@ -259,13 +278,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -592,8 +611,8 @@
   <sheetPr codeName="eingabe"/>
   <dimension ref="A1:O306"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,8 +645,8 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
+      <c r="J1" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -657,7 +676,7 @@
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -687,7 +706,7 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -717,7 +736,7 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -747,7 +766,7 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -776,9 +795,6 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -807,10 +823,8 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -839,10 +853,8 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -870,6 +882,11 @@
         <v>1.61E-2</v>
       </c>
       <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -897,6 +914,11 @@
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -924,18 +946,11 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>3</v>
-      </c>
+      <c r="J11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -963,21 +978,11 @@
         <v>0.5706</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" t="s">
-        <v>30</v>
-      </c>
+      <c r="J12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1005,20 +1010,8 @@
         <v>2.4E-2</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" t="s">
-        <v>30</v>
+      <c r="J13" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1047,21 +1040,6 @@
         <v>2.4E-2</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1089,20 +1067,17 @@
         <v>1.38E-2</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="3" t="s">
-        <v>7</v>
+      <c r="J15" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1131,11 +1106,23 @@
         <v>0.40250000000000002</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1161,11 +1148,23 @@
         <v>0.40250000000000002</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1191,11 +1190,23 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1221,11 +1232,23 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1255,7 +1278,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1285,7 +1308,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1315,7 +1338,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1345,7 +1368,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1375,7 +1398,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1405,7 +1428,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1435,7 +1458,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1465,7 +1488,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1495,7 +1518,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1525,7 +1548,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1555,7 +1578,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1585,7 +1608,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2095,7 +2118,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" t="s">
         <v>0</v>
@@ -2120,8 +2143,10 @@
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>0</v>
       </c>
@@ -2144,8 +2169,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -2167,8 +2195,11 @@
       <c r="H51" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -2190,8 +2221,11 @@
       <c r="H52" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -2213,8 +2247,9 @@
       <c r="H53" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -8048,7 +8083,7 @@
   <sheetPr codeName="eingabeToy"/>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A47"/>
     </sheetView>
   </sheetViews>
@@ -8156,7 +8191,7 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -8165,7 +8200,7 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -8174,7 +8209,7 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -8184,10 +8219,10 @@
       <c r="A7"/>
       <c r="C7" s="6"/>
       <c r="J7" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -8205,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -8214,7 +8249,7 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -8223,7 +8258,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -8232,7 +8267,7 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">

--- a/testDocumentationRAddin.xlsx
+++ b/testDocumentationRAddin.xlsx
@@ -12,22 +12,22 @@
   </sheets>
   <definedNames>
     <definedName name="R_Addin" localSheetId="1">Input_Toy!$J$1:$L$5</definedName>
-    <definedName name="R_Addin">Input!$J$15:$L$19</definedName>
+    <definedName name="R_Addin">Input!$J$19:$L$23</definedName>
     <definedName name="R_AddinAnotherDef" localSheetId="1">Input_Toy!$J$7:$L$12</definedName>
-    <definedName name="R_AddinAnotherDef">Input!$M$15:$O$19</definedName>
-    <definedName name="test_in" localSheetId="1">Input_Toy!$B$1:$H$3</definedName>
+    <definedName name="R_AddinAnotherDef">Input!$M$19:$O$23</definedName>
+    <definedName name="test_in" localSheetId="1">Input_Toy!$B$1:$H$4</definedName>
     <definedName name="test_in">Input!$B$1:$H$306</definedName>
-    <definedName name="test_out" localSheetId="1">Input_Toy!$A$1:$A$3</definedName>
+    <definedName name="test_out" localSheetId="1">Input_Toy!$A$2:$A$4</definedName>
     <definedName name="test_out">Input!$A$2:$A$49</definedName>
     <definedName name="testdiagram" localSheetId="1">Input_Toy!$J$17</definedName>
-    <definedName name="testdiagram">Input!$J$23</definedName>
+    <definedName name="testdiagram">Input!$J$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="43">
   <si>
     <t/>
   </si>
@@ -122,9 +122,6 @@
     <t>When running cmd shell files a special entry "cmd" is used for rexec.</t>
   </si>
   <si>
-    <t>Define Rscript interactions (Rdefinitions) using a 3 column named area (1st col: definition type, 2nd: definition value, 3rd: definition path):</t>
-  </si>
-  <si>
     <t>Rdefinition area name must start with R_Addin and can have an optional postfix as an additional description of the definition</t>
   </si>
   <si>
@@ -141,6 +138,24 @@
   </si>
   <si>
     <t>The range names that are referred in arg, res and diag types can also be either workbook global (having no ! in front of the name) or worksheet local (having the worksheet name + ! in front of the name)</t>
+  </si>
+  <si>
+    <t>The definitions are loaded inot the Rdefinition dropdown either on opening/activating a Workbook with above named areas or by pressing "refresh Rdefinitions" on the R Addin Ribbon Tab.</t>
+  </si>
+  <si>
+    <t>R Addin provides an easy way to define and run R script interactions started from Excel.</t>
+  </si>
+  <si>
+    <t>Running an R script is simply done by selecting the appropriate Rdefinition and pressing "run this Rdefinition" on the R Addin Ribbon Tab.</t>
+  </si>
+  <si>
+    <t>Selecting the Rdefinition highlights the specified definition area (see below).</t>
+  </si>
+  <si>
+    <t>How to define Rscript interactions (Rdefinitions) using a 3 column named area (1st col: definition type, 2nd: definition value, 3rd: definition path):</t>
+  </si>
+  <si>
+    <t>result:</t>
   </si>
 </sst>
 </file>
@@ -278,13 +293,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -309,6 +324,99 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3295650" y="2914650"/>
+          <a:ext cx="4572000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="testdiagram.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010025" y="4048125"/>
+          <a:ext cx="4572000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="testdiagram.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="2590800"/>
           <a:ext cx="4572000" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -612,18 +720,18 @@
   <dimension ref="A1:O306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="4" customWidth="1"/>
-    <col min="2" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -645,28 +753,28 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.40250000000000002</v>
       </c>
       <c r="G2" s="1">
         <v>0.29749999999999999</v>
@@ -675,28 +783,28 @@
         <v>0.40250000000000002</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.30690000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.50719999999999998</v>
       </c>
       <c r="G3" s="1">
         <v>0.30690000000000001</v>
@@ -705,28 +813,28 @@
         <v>0.50719999999999998</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>1.04E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="G4" s="1">
         <v>1.04E-2</v>
@@ -735,28 +843,28 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J4" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="G5" s="1">
         <v>5.1000000000000004E-3</v>
@@ -766,27 +874,27 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.28749999999999998</v>
       </c>
       <c r="G6" s="1">
         <v>0.21249999999999999</v>
@@ -795,25 +903,28 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="G7" s="1">
         <v>5.4999999999999997E-3</v>
@@ -823,27 +934,27 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.15E-2</v>
       </c>
       <c r="G8" s="1">
         <v>8.5000000000000006E-3</v>
@@ -853,27 +964,27 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.61E-2</v>
       </c>
       <c r="G9" s="1">
         <v>1.1900000000000001E-2</v>
@@ -882,30 +993,25 @@
         <v>1.61E-2</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>2.3E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="G10" s="1">
         <v>2.3E-2</v>
@@ -915,29 +1021,27 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>0.3836</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3836</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.3836</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.3836</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.63400000000000001</v>
       </c>
       <c r="G11" s="1">
         <v>0.3836</v>
@@ -947,29 +1051,27 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.5706</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5706</v>
       </c>
       <c r="G12" s="1">
         <v>0.34520000000000001</v>
@@ -979,29 +1081,29 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.4E-2</v>
       </c>
       <c r="G13" s="1">
         <v>1.4500000000000001E-2</v>
@@ -1011,27 +1113,29 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.4E-2</v>
       </c>
       <c r="G14" s="1">
         <v>1.4500000000000001E-2</v>
@@ -1040,25 +1144,30 @@
         <v>2.4E-2</v>
       </c>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.38E-2</v>
       </c>
       <c r="G15" s="1">
         <v>1.0200000000000001E-2</v>
@@ -1067,37 +1176,30 @@
         <v>1.38E-2</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.40250000000000002</v>
       </c>
       <c r="G16" s="1">
         <v>0.29749999999999999</v>
@@ -1106,40 +1208,28 @@
         <v>0.40250000000000002</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" t="s">
-        <v>24</v>
+      <c r="J16" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.40250000000000002</v>
       </c>
       <c r="G17" s="1">
         <v>0.29749999999999999</v>
@@ -1148,40 +1238,28 @@
         <v>0.40250000000000002</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" t="s">
-        <v>24</v>
+      <c r="J17" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="G18" s="1">
         <v>7.7000000000000002E-3</v>
@@ -1190,40 +1268,25 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="G19" s="1">
         <v>7.7000000000000002E-3</v>
@@ -1232,40 +1295,37 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="3" t="s">
-        <v>7</v>
+      <c r="J19" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.61E-2</v>
       </c>
       <c r="G20" s="1">
         <v>1.1900000000000001E-2</v>
@@ -1274,28 +1334,40 @@
         <v>1.61E-2</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="J20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.3E-2</v>
       </c>
       <c r="G21" s="1">
         <v>1.7000000000000001E-2</v>
@@ -1304,28 +1376,40 @@
         <v>2.3E-2</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="J21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="G22" s="1">
         <v>1.9099999999999999E-2</v>
@@ -1334,28 +1418,40 @@
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="G23" s="1">
         <v>4.2500000000000003E-2</v>
@@ -1364,28 +1460,40 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="J23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.1799999999999999E-2</v>
       </c>
       <c r="G24" s="1">
         <v>3.8300000000000001E-2</v>
@@ -1400,22 +1508,22 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.73540000000000005</v>
       </c>
       <c r="G25" s="1">
         <v>0.44500000000000001</v>
@@ -1430,22 +1538,22 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.54520000000000002</v>
       </c>
       <c r="G26" s="1">
         <v>0.32979999999999998</v>
@@ -1460,22 +1568,22 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.59589999999999999</v>
       </c>
       <c r="G27" s="1">
         <v>0.36049999999999999</v>
@@ -1490,22 +1598,22 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+        <v>0.1918</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.1918</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.1918</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.1918</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.317</v>
       </c>
       <c r="G28" s="1">
         <v>0.1918</v>
@@ -1520,22 +1628,22 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+        <v>1.84E-2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="G29" s="1">
         <v>1.84E-2</v>
@@ -1550,22 +1658,22 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
+        <v>1.26E-2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="G30" s="1">
         <v>1.26E-2</v>
@@ -1580,22 +1688,22 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>1.26E-2</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="G31" s="1">
         <v>1.26E-2</v>
@@ -1610,22 +1718,22 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="G32" s="1">
         <v>7.7000000000000002E-3</v>
@@ -1640,22 +1748,22 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+        <v>0.34</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.46</v>
       </c>
       <c r="G33" s="1">
         <v>0.34</v>
@@ -1670,22 +1778,22 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+        <v>0.255</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.34499999999999997</v>
       </c>
       <c r="G34" s="1">
         <v>0.255</v>
@@ -1700,22 +1808,22 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
+        <v>0.255</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.34499999999999997</v>
       </c>
       <c r="G35" s="1">
         <v>0.255</v>
@@ -1730,22 +1838,22 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.115</v>
       </c>
       <c r="G36" s="1">
         <v>8.5000000000000006E-2</v>
@@ -1760,22 +1868,22 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+        <v>1.15E-2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.9E-2</v>
       </c>
       <c r="G37" s="1">
         <v>1.15E-2</v>
@@ -1790,22 +1898,22 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>7</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
+        <v>6.6E-3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="G38" s="1">
         <v>6.6E-3</v>
@@ -1820,22 +1928,22 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
+        <v>6.6E-3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="G39" s="1">
         <v>6.6E-3</v>
@@ -1850,22 +1958,22 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>7</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="G40" s="1">
         <v>2.7000000000000001E-3</v>
@@ -1880,22 +1988,22 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G41" s="1">
         <v>3.4000000000000002E-2</v>
@@ -1910,22 +2018,22 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2.3E-2</v>
       </c>
       <c r="G42" s="1">
         <v>1.7000000000000001E-2</v>
@@ -1940,22 +2048,22 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>9</v>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
+        <v>1.49E-2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.01E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2.01E-2</v>
       </c>
       <c r="G43" s="1">
         <v>1.49E-2</v>
@@ -1970,22 +2078,22 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>9</v>
-      </c>
-      <c r="B44">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.15E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.15E-2</v>
       </c>
       <c r="G44" s="1">
         <v>8.5000000000000006E-3</v>
@@ -2000,22 +2108,22 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>9</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="G45" s="1">
         <v>5.9499999999999997E-2</v>
@@ -2030,22 +2138,22 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>10</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>9</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G46" s="1">
         <v>3.4000000000000002E-2</v>
@@ -2060,22 +2168,22 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>10</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>9</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
+        <v>3.61E-2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3.61E-2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.61E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.61E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="G47" s="1">
         <v>3.61E-2</v>
@@ -2090,22 +2198,22 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>10</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>9</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.3E-2</v>
       </c>
       <c r="G48" s="1">
         <v>1.7000000000000001E-2</v>
@@ -2248,6 +2356,8 @@
         <v>0</v>
       </c>
       <c r="J53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
@@ -2271,6 +2381,9 @@
       <c r="H54" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="J54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
@@ -2294,6 +2407,9 @@
       <c r="H55" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="J55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
@@ -2317,6 +2433,7 @@
       <c r="H56" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
@@ -8084,7 +8201,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A47"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8098,51 +8215,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1"/>
-      <c r="B1">
-        <v>23</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3</v>
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="str">
-        <f>IFERROR(IF(D2=0,CODE(RIGHT(Input_Toy!#REF!,LEN(Input_Toy!#REF!)-1))-64,CODE(Input_Toy!#REF!)-64),"")</f>
-        <v/>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="str">
-        <f>IFERROR(IF(F2=0,CODE(RIGHT(Input_Toy!#REF!,LEN(Input_Toy!#REF!)-1))-64,CODE(Input_Toy!#REF!)-64),"")</f>
-        <v/>
+      <c r="E2">
+        <v>3</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -8162,7 +8281,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3"/>
+      <c r="A3">
+        <v>3</v>
+      </c>
       <c r="B3">
         <v>3</v>
       </c>
@@ -8195,7 +8316,32 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IFERROR(IF(D4=0,CODE(RIGHT(Input_Toy!#REF!,LEN(Input_Toy!#REF!)-1))-64,CODE(Input_Toy!#REF!)-64),"")</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IFERROR(IF(F4=0,CODE(RIGHT(Input_Toy!#REF!,LEN(Input_Toy!#REF!)-1))-64,CODE(Input_Toy!#REF!)-64),"")</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
       <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
@@ -8217,7 +8363,6 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="C7" s="6"/>
       <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
@@ -8227,6 +8372,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8"/>
+      <c r="C8" s="6"/>
       <c r="J8" s="4" t="s">
         <v>2</v>
       </c>
@@ -8275,10 +8421,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16"/>
@@ -8382,5 +8528,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;Z&amp;F&amp;A</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/testDocumentationRAddin.xlsx
+++ b/testDocumentationRAddin.xlsx
@@ -291,20 +291,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="2" name="testdiagram.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -323,51 +323,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="2914650"/>
-          <a:ext cx="4572000" cy="4572000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="testdiagram.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4010025" y="4048125"/>
+          <a:off x="4810125" y="4095750"/>
           <a:ext cx="4572000" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/testDocumentationRAddin.xlsx
+++ b/testDocumentationRAddin.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="44">
   <si>
     <t/>
   </si>
@@ -116,9 +116,6 @@
     <t>Absolute Paths in dir or the definition path column are defined by starting with \\ or X:\ (X being a drive letter)</t>
   </si>
   <si>
-    <t>rexec is the full path to an executable being able to run the script in line "script" (usually Rscript.exe). It is only needed when overriding the ExePath in the AppSettings in the Raddin-AddIn-packed.xll.config file.</t>
-  </si>
-  <si>
     <t>When running cmd shell files a special entry "cmd" is used for rexec.</t>
   </si>
   <si>
@@ -126,12 +123,6 @@
   </si>
   <si>
     <t>An area name can be Workbook global or worksheet local, the first Rdefinition area is being taken as the default definition (used for running when not selecting a Rdefinition)</t>
-  </si>
-  <si>
-    <t>1st column: definition types, possible types are rexec, dir, script, arg (R input objects, txt files), res (R output objects, txt files) and diag (R output diagrams, png format)</t>
-  </si>
-  <si>
-    <t>2nd column: definition values, for rexec, dir and script this is simply the path/name of the executable/Rdefinition directory/script.</t>
   </si>
   <si>
     <t>For arg, res and diag these are range names referring to the respective ranges to be taken as arg, res or diag target in the excel workbook.</t>
@@ -156,6 +147,18 @@
   </si>
   <si>
     <t>result:</t>
+  </si>
+  <si>
+    <t>rexec is the full path to an executable, being able to run the script in line "script" (usually Rscript.exe). It is only needed when overriding the ExePath in the AppSettings in the Raddin-AddIn-packed.xll.config file.</t>
+  </si>
+  <si>
+    <t>2nd column: definition values, for rexec, dir and script (debug) this is simply the path/name of the executable/Rdefinition directory/script.</t>
+  </si>
+  <si>
+    <t>1st column: definition types, possible types are rexec, dir, script (put debug here to capture &amp; return error output) , arg (R input objects, txt files), res (R output objects, txt files) and diag (R output diagrams, png format)</t>
+  </si>
+  <si>
+    <t>debug</t>
   </si>
 </sst>
 </file>
@@ -291,20 +294,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="testdiagram.png"/>
+        <xdr:cNvPr id="3" name="testdiagram.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -323,7 +326,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4810125" y="4095750"/>
+          <a:off x="4010025" y="4048125"/>
           <a:ext cx="4572000" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -353,7 +356,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="testdiagram.png"/>
+        <xdr:cNvPr id="3" name="testdiagram.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -676,7 +679,7 @@
   <dimension ref="A1:O306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="M19" sqref="M19:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -710,7 +713,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -740,7 +743,7 @@
       </c>
       <c r="I2" s="7"/>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -770,7 +773,7 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -800,7 +803,7 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -830,7 +833,7 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -860,7 +863,7 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -977,7 +980,7 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1007,7 +1010,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1037,7 +1040,7 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1069,7 +1072,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1133,7 +1136,7 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1165,7 +1168,7 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1195,7 +1198,7 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -8157,7 +8160,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8172,7 +8175,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
@@ -8230,7 +8233,7 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="3" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>

--- a/testDocumentationRAddin.xlsx
+++ b/testDocumentationRAddin.xlsx
@@ -9,33 +9,40 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="150" windowWidth="5040" windowHeight="7470"/>
+    <workbookView xWindow="15180" yWindow="150" windowWidth="5040" windowHeight="7470" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Input_Toy" sheetId="5" r:id="rId2"/>
+    <sheet name="Doc_Main Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_scriptRng" sheetId="7" r:id="rId2"/>
+    <sheet name="Test_Toy" sheetId="5" r:id="rId3"/>
+    <sheet name="Test_RdotNet" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="R_Addin" localSheetId="1">Input_Toy!$J$1:$L$5</definedName>
-    <definedName name="R_Addin">Input!$J$22:$L$26</definedName>
-    <definedName name="R_AddinAnotherDef" localSheetId="1">Input_Toy!$J$7:$L$12</definedName>
-    <definedName name="R_AddinAnotherDef">Input!$M$22:$O$26</definedName>
-    <definedName name="R_AddinScriptCell">Input!$Q$52:$S$56</definedName>
-    <definedName name="R_AddinScriptRange">Input!$U$22:$W$26</definedName>
-    <definedName name="scriptRange">Input!$U$1:$U$17</definedName>
-    <definedName name="test_in" localSheetId="1">Input_Toy!$B$1:$H$4</definedName>
-    <definedName name="test_in">Input!$B$1:$H$306</definedName>
-    <definedName name="test_out" localSheetId="1">Input_Toy!$A$2:$A$4</definedName>
-    <definedName name="test_out">Input!$A$2:$A$49</definedName>
-    <definedName name="testdiagram" localSheetId="1">Input_Toy!$J$17</definedName>
-    <definedName name="testdiagram">Input!$J$29</definedName>
+    <definedName name="R_Addin" localSheetId="3">Test_RdotNet!$A$1:$C$6</definedName>
+    <definedName name="R_Addin" localSheetId="2">Test_Toy!$J$1:$L$5</definedName>
+    <definedName name="R_Addin">'Doc_Main Test'!$J$22:$L$26</definedName>
+    <definedName name="R_AddinAnotherDef" localSheetId="2">Test_Toy!$J$7:$L$12</definedName>
+    <definedName name="R_AddinAnotherDef">'Doc_Main Test'!$M$22:$O$26</definedName>
+    <definedName name="R_AddinScriptCell" localSheetId="1">Test_scriptRng!$A$25:$C$29</definedName>
+    <definedName name="R_AddinScriptRange" localSheetId="1">Test_scriptRng!$A$19:$C$23</definedName>
+    <definedName name="scriptRange" localSheetId="1">Test_scriptRng!$B$1:$B$17</definedName>
+    <definedName name="test_in" localSheetId="3">Test_RdotNet!$A$9:$A$14</definedName>
+    <definedName name="test_in" localSheetId="2">Test_Toy!$B$1:$H$4</definedName>
+    <definedName name="test_in">'Doc_Main Test'!$B$1:$H$301</definedName>
+    <definedName name="test_out" localSheetId="3">Test_RdotNet!$B$9:$B$14</definedName>
+    <definedName name="test_out" localSheetId="2">Test_Toy!$A$2:$A$4</definedName>
+    <definedName name="test_out">'Doc_Main Test'!$A$2:$A$49</definedName>
+    <definedName name="testdiagram" localSheetId="3">Test_RdotNet!$D$2</definedName>
+    <definedName name="testdiagram" localSheetId="1">Test_scriptRng!$D$2</definedName>
+    <definedName name="testdiagram" localSheetId="2">Test_Toy!$J$17</definedName>
+    <definedName name="testdiagram">'Doc_Main Test'!$J$29</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="71">
   <si>
     <t/>
   </si>
@@ -95,15 +102,6 @@
   </si>
   <si>
     <t>So for the 4 areas defined in this test workbook there should be 4 entries in the Rdefinition dropdown: Input_toy, test.xlsm, Input_toyAnotherDef, test.xlsmAnotherDef</t>
-  </si>
-  <si>
-    <t>Input_Toy!test_in</t>
-  </si>
-  <si>
-    <t>Input_Toy!test_out</t>
-  </si>
-  <si>
-    <t>Input_Toy!testdiagram</t>
   </si>
   <si>
     <t>testRDir</t>
@@ -244,6 +242,48 @@
   <si>
     <t>The range names that are referred in arg, res, scriptrng and diag types can also be either workbook global (having no ! in front of the name) or worksheet local (having the worksheet name + ! in front of the name)</t>
   </si>
+  <si>
+    <t>Test_Toy!test_in</t>
+  </si>
+  <si>
+    <t>Test_Toy!test_out</t>
+  </si>
+  <si>
+    <t>Test_Toy!testdiagram</t>
+  </si>
+  <si>
+    <t>Test_scriptRng!testdiagram</t>
+  </si>
+  <si>
+    <t>rpath</t>
+  </si>
+  <si>
+    <t>Test_RdotNet!testdiagram</t>
+  </si>
+  <si>
+    <t>Test_RdotNet!test_out</t>
+  </si>
+  <si>
+    <t>Test_RdotNet!test_in</t>
+  </si>
+  <si>
+    <t>library(ggplot2)
+initial.options &lt;- commandArgs(trailingOnly = FALSE)
+script.name &lt;- sub("--file=", "", initial.options[grep("--file=", initial.options)])
+script.basename &lt;- dirname(script.name)
+if (length(script.basename) == 0) {
+  # this only works RGui
+  script.basename &lt;- getSrcDirectory(function(x) {x})
+}
+setwd(script.basename)
+gplot &lt;- ggplot(data = test_in, aes(x = in1, y = in2) ) + geom_point()
+png(filename="testdiagram.png")
+print(gplot)
+dev.off()</t>
+  </si>
+  <si>
+    <t>C:\Program Files\R\R-3.4.0\bin\i386</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +417,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -402,6 +442,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Komma 2" xfId="3"/>
@@ -513,6 +558,61 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="testdiagram.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B501BFCF-F942-45E5-87E4-7C806D95B637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="161925"/>
+          <a:ext cx="4572000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -889,10 +989,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="eingabe"/>
-  <dimension ref="A1:V306"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -902,7 +1002,7 @@
     <col min="18" max="18" width="86.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
@@ -925,13 +1025,10 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>0.29749999999999999</v>
       </c>
@@ -958,13 +1055,10 @@
       </c>
       <c r="I2" s="7"/>
       <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>0.30690000000000001</v>
       </c>
@@ -991,13 +1085,10 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>1.04E-2</v>
       </c>
@@ -1024,13 +1115,10 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>5.1000000000000004E-3</v>
       </c>
@@ -1057,13 +1145,10 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>0.21249999999999999</v>
       </c>
@@ -1090,13 +1175,10 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>5.4999999999999997E-3</v>
       </c>
@@ -1125,11 +1207,8 @@
       <c r="J7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>8.5000000000000006E-3</v>
       </c>
@@ -1158,11 +1237,8 @@
       <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>1.1900000000000001E-2</v>
       </c>
@@ -1188,11 +1264,8 @@
         <v>1.61E-2</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="U9" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>2.3E-2</v>
       </c>
@@ -1219,13 +1292,10 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>0.3836</v>
       </c>
@@ -1252,13 +1322,10 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>0.34520000000000001</v>
       </c>
@@ -1285,15 +1352,12 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="U12" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -1320,15 +1384,12 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="U13" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -1355,15 +1416,12 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="U14" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>1.0200000000000001E-2</v>
       </c>
@@ -1390,15 +1448,12 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="U15" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>0.29749999999999999</v>
       </c>
@@ -1425,13 +1480,10 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>0.29749999999999999</v>
       </c>
@@ -1458,13 +1510,10 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>7.7000000000000002E-3</v>
       </c>
@@ -1491,10 +1540,10 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>7.7000000000000002E-3</v>
       </c>
@@ -1521,7 +1570,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>1.1900000000000001E-2</v>
       </c>
@@ -1548,7 +1597,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -1575,7 +1624,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>1.9099999999999999E-2</v>
       </c>
@@ -1611,17 +1660,11 @@
         <v>2</v>
       </c>
       <c r="N22" t="str">
-        <f ca="1">SUBSTITUTE(CELL("DATEINAME",O22),"[testDocumentationRAddin.xlsx]Input","")</f>
+        <f ca="1">SUBSTITUTE(CELL("DATEINAME",O22),"[testDocumentationRAddin.xlsx]Doc_Main Test","")</f>
         <v>C:\dev\RAddin\</v>
       </c>
-      <c r="U22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>4.2500000000000003E-2</v>
       </c>
@@ -1660,16 +1703,10 @@
         <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>3.8300000000000001E-2</v>
       </c>
@@ -1708,16 +1745,10 @@
         <v>9</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>0.44500000000000001</v>
       </c>
@@ -1756,16 +1787,10 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>0.32979999999999998</v>
       </c>
@@ -1804,16 +1829,10 @@
         <v>4</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>0.36049999999999999</v>
       </c>
@@ -1843,7 +1862,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>0.1918</v>
       </c>
@@ -1873,7 +1892,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>1.84E-2</v>
       </c>
@@ -1903,7 +1922,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>1.26E-2</v>
       </c>
@@ -1933,7 +1952,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>1.26E-2</v>
       </c>
@@ -1963,7 +1982,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>7.7000000000000002E-3</v>
       </c>
@@ -2473,7 +2492,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="12" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2519,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="2:18" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2546,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2572,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="12" t="s">
         <v>0</v>
       </c>
@@ -2578,14 +2597,8 @@
       <c r="J52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="Q52" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R52" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" ht="229.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="12" t="s">
         <v>0</v>
       </c>
@@ -2610,14 +2623,8 @@
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="Q53" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="R53" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="12" t="s">
         <v>0</v>
       </c>
@@ -2640,16 +2647,8 @@
         <v>0</v>
       </c>
       <c r="J54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="Q54" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R54" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
         <v>0</v>
       </c>
@@ -2671,17 +2670,8 @@
       <c r="H55" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="Q55" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R55" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="12" t="s">
         <v>0</v>
       </c>
@@ -2703,17 +2693,8 @@
       <c r="H56" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="Q56" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="R56" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="12" t="s">
         <v>0</v>
       </c>
@@ -2735,11 +2716,8 @@
       <c r="H57" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="12" t="s">
         <v>0</v>
       </c>
@@ -2761,11 +2739,8 @@
       <c r="H58" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="12" t="s">
         <v>0</v>
       </c>
@@ -2787,9 +2762,8 @@
       <c r="H59" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="12" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="12" t="s">
         <v>0</v>
       </c>
@@ -2835,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="12" t="s">
         <v>0</v>
       </c>
@@ -2881,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="12" t="s">
         <v>0</v>
       </c>
@@ -8352,121 +8326,6 @@
         <v>0</v>
       </c>
       <c r="H301" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B302" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C302" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D302" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E302" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F302" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G302" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H302" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B303" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C303" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D303" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E303" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F303" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G303" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H303" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B304" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C304" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D304" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E304" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F304" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G304" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H304" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B305" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C305" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D305" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E305" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F305" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G305" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H305" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B306" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C306" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D306" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E306" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F306" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G306" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H306" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8482,11 +8341,6468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M302"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" style="12" customWidth="1"/>
+    <col min="3" max="8" width="4.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="18" max="18" width="86.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B59" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B60" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B61" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B64" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B143" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B144" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B145" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B146" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B147" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H148" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H149" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B150" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B151" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B154" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B155" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B156" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B157" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H157" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B158" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H158" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B159" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B160" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B161" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H161" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B162" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B163" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H163" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B164" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H164" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B165" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H165" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B166" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H167" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B168" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G168" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H168" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B169" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H169" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B170" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H170" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B171" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H171" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B172" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H172" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H173" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H174" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B175" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B176" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B177" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H178" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H179" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B180" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H180" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H181" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H182" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H183" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H185" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B186" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B187" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H187" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B188" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B189" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H189" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B190" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G190" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H190" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G191" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B193" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G193" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H193" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H194" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H195" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B197" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H197" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B198" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G198" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H198" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H199" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B200" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G200" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H200" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B201" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H201" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B202" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H202" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B203" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G203" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H203" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B204" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G204" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H204" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B205" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G205" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H205" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B206" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G206" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H206" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H207" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B208" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G208" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H208" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B209" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H209" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B210" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H210" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B211" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G211" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H211" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B212" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G212" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H212" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B213" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F213" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G213" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H213" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B214" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F214" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G214" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H214" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B215" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G215" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H215" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B216" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G216" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H216" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B217" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G217" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H217" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B218" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F218" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G218" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H218" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B219" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F219" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G219" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H219" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B220" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G220" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H220" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B221" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G221" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H221" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B222" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G222" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H222" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B223" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G223" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H223" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B224" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G224" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H224" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B225" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E225" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G225" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H225" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B226" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G226" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H226" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B227" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E227" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G227" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H227" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B228" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E228" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F228" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G228" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H228" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B229" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E229" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F229" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G229" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H229" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B230" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E230" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F230" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G230" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H230" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B231" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E231" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F231" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G231" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H231" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B232" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E232" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F232" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G232" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H232" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B233" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E233" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F233" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H233" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B234" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G234" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H234" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B235" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E235" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G235" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H235" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B236" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F236" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G236" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H236" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B237" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H237" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B238" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H238" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B239" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H239" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B240" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H240" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B241" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G241" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H241" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B242" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F242" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G242" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H242" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B243" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G243" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H243" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B244" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G244" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H244" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B245" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F245" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H245" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B246" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F246" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H246" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B247" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F247" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G247" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H247" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B248" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F248" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G248" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H248" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B249" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G249" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H249" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B250" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F250" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G250" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H250" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B251" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G251" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H251" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B252" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G252" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H252" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B253" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G253" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H253" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B254" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G254" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H254" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B255" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H255" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B256" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H256" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B257" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H257" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B258" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H258" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B259" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G259" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H259" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B260" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F260" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H260" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B261" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F261" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H261" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B262" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H262" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B263" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F263" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H263" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B264" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F264" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H264" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B265" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F265" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H265" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B266" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F266" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G266" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H266" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B267" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F267" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G267" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H267" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B268" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F268" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H268" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B269" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F269" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H269" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B270" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F270" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G270" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H270" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B271" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E271" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F271" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G271" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H271" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B272" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F272" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G272" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H272" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B273" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F273" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G273" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H273" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B274" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F274" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G274" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H274" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B275" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F275" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G275" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H275" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B276" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E276" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F276" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G276" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H276" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B277" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G277" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H277" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B278" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F278" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G278" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H278" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B279" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F279" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G279" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H279" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B280" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F280" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G280" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H280" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B281" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E281" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F281" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G281" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H281" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B282" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F282" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G282" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H282" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B283" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F283" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G283" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H283" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B284" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F284" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G284" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H284" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B285" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F285" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G285" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H285" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B286" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F286" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G286" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H286" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B287" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F287" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G287" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H287" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B288" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F288" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G288" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H288" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B289" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F289" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G289" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H289" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B290" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F290" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G290" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H290" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B291" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F291" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H291" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B292" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E292" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F292" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G292" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H292" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B293" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E293" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F293" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G293" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H293" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B294" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F294" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G294" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H294" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B295" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F295" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G295" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H295" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B296" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F296" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G296" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H296" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B297" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F297" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G297" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H297" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B298" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F298" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G298" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H298" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B299" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F299" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G299" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H299" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B300" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F300" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G300" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H300" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B301" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G301" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H301" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B302" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F302" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G302" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H302" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;Z&amp;F&amp;A</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="eingabeToy"/>
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8501,7 +14817,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
@@ -8559,7 +14875,7 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -8573,14 +14889,14 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>IFERROR(IF(D3=0,CODE(RIGHT(Input_Toy!#REF!,LEN(Input_Toy!#REF!)-1))-64,CODE(Input_Toy!#REF!)-64),"")</f>
+        <f>IFERROR(IF(D3=0,CODE(RIGHT(Test_Toy!#REF!,LEN(Test_Toy!#REF!)-1))-64,CODE(Test_Toy!#REF!)-64),"")</f>
         <v/>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="str">
-        <f>IFERROR(IF(F3=0,CODE(RIGHT(Input_Toy!#REF!,LEN(Input_Toy!#REF!)-1))-64,CODE(Input_Toy!#REF!)-64),"")</f>
+        <f>IFERROR(IF(F3=0,CODE(RIGHT(Test_Toy!#REF!,LEN(Test_Toy!#REF!)-1))-64,CODE(Test_Toy!#REF!)-64),"")</f>
         <v/>
       </c>
       <c r="F3">
@@ -8597,7 +14913,7 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -8608,14 +14924,14 @@
         <v>3</v>
       </c>
       <c r="C4" t="str">
-        <f>IFERROR(IF(D4=0,CODE(RIGHT(Input_Toy!#REF!,LEN(Input_Toy!#REF!)-1))-64,CODE(Input_Toy!#REF!)-64),"")</f>
+        <f>IFERROR(IF(D4=0,CODE(RIGHT(Test_Toy!#REF!,LEN(Test_Toy!#REF!)-1))-64,CODE(Test_Toy!#REF!)-64),"")</f>
         <v/>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <f>IFERROR(IF(F4=0,CODE(RIGHT(Input_Toy!#REF!,LEN(Input_Toy!#REF!)-1))-64,CODE(Input_Toy!#REF!)-64),"")</f>
+        <f>IFERROR(IF(F4=0,CODE(RIGHT(Test_Toy!#REF!,LEN(Test_Toy!#REF!)-1))-64,CODE(Test_Toy!#REF!)-64),"")</f>
         <v/>
       </c>
       <c r="F4">
@@ -8631,7 +14947,7 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -8640,7 +14956,7 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -8649,10 +14965,10 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="J7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -8671,7 +14987,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -8680,7 +14996,7 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -8689,7 +15005,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -8698,7 +15014,7 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -8815,4 +15131,70 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>